--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javoo\Desktop\Orchestrator\EDSA-REF-AmazonBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EDD045-4EA5-4EAD-8535-F2480C12A5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B76C21-0785-4642-AE4A-059A04F449AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -169,13 +169,25 @@
   </si>
   <si>
     <t>OutputFile_Path</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/</t>
+  </si>
+  <si>
+    <t>C:\Users\Javoo\Desktop\Orchestrator\EDSA-REF-AmazonBot\Data\Output\datos_procesados.xlsx</t>
+  </si>
+  <si>
+    <t>InputFile_Path</t>
+  </si>
+  <si>
+    <t>C:\Users\Javoo\Desktop\Orchestrator\EDSA-REF-AmazonBot\Data\Input\datos_buscar.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -199,6 +211,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,10 +235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -230,8 +249,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,7 +568,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -627,9 +648,30 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1621,8 +1663,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{D247DD35-B8A1-4892-AC98-1C247011CD35}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2794,7 +2839,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2841,28 +2886,8 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
